--- a/data/coding/coder_reliability.xlsx
+++ b/data/coding/coder_reliability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\masd_reloaded\data\coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\masd\data\coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728B287-42F1-49A1-8F62-D3768EE129AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC14C4-AE3E-42AF-95C2-0794C6279028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="390">
   <si>
     <t>id.full</t>
   </si>
@@ -1161,207 +1161,6 @@
   </si>
   <si>
     <t>Seehuus_Rellini_2013</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2014</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2015</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2016</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2017</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2018</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2019</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2020</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2021</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2022</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2023</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2024</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2025</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2026</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2027</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2028</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2029</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2030</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2031</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2032</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2033</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2034</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2035</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2036</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2037</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2038</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2039</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2040</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2041</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2042</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2043</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2044</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2045</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2046</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2047</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2048</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2049</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2050</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2051</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2052</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2053</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2054</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2055</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2056</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2057</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2058</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2059</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2060</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2061</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2062</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2063</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2064</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2065</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2066</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2067</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2068</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2069</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2070</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2071</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2072</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2073</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2074</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2075</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2076</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2077</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2078</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2079</t>
-  </si>
-  <si>
-    <t>Seehuus_Rellini_2080</t>
   </si>
   <si>
     <t>online study</t>
@@ -2891,11 +2690,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" customWidth="1"/>
@@ -2909,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -24610,7 +24411,7 @@
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1311" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1311" t="s">
         <v>6</v>
@@ -24627,7 +24428,7 @@
     </row>
     <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1312" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1312" t="s">
         <v>8</v>
@@ -24641,7 +24442,7 @@
     </row>
     <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1313" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1313" t="s">
         <v>9</v>
@@ -24655,7 +24456,7 @@
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1314" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B1314" t="s">
         <v>11</v>
@@ -24669,7 +24470,7 @@
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1315" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B1315" t="s">
         <v>12</v>
@@ -24683,7 +24484,7 @@
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1316" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B1316" t="s">
         <v>13</v>
@@ -24697,7 +24498,7 @@
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1317" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B1317" t="s">
         <v>14</v>
@@ -24711,7 +24512,7 @@
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1318" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B1318" t="s">
         <v>15</v>
@@ -24728,7 +24529,7 @@
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1319" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B1319" t="s">
         <v>17</v>
@@ -24745,7 +24546,7 @@
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1320" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B1320" t="s">
         <v>20</v>
@@ -24762,7 +24563,7 @@
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1321" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B1321" t="s">
         <v>22</v>
@@ -24779,7 +24580,7 @@
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1322" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B1322" t="s">
         <v>24</v>
@@ -24796,7 +24597,7 @@
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1323" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B1323" t="s">
         <v>27</v>
@@ -24813,7 +24614,7 @@
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1324" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B1324" t="s">
         <v>28</v>
@@ -24830,13 +24631,13 @@
     </row>
     <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1325" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B1325" t="s">
         <v>29</v>
       </c>
       <c r="C1325" s="2" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="D1325" s="2" t="s">
         <v>30</v>
@@ -24847,7 +24648,7 @@
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1326" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B1326" t="s">
         <v>31</v>
@@ -24864,7 +24665,7 @@
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1327" s="2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B1327" t="s">
         <v>32</v>
@@ -24881,7 +24682,7 @@
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1328" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B1328" t="s">
         <v>33</v>
@@ -24898,7 +24699,7 @@
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1329" s="2" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B1329" t="s">
         <v>34</v>
@@ -24915,7 +24716,7 @@
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1330" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B1330" t="s">
         <v>35</v>
@@ -24932,7 +24733,7 @@
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1331" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="B1331" t="s">
         <v>36</v>
@@ -24949,7 +24750,7 @@
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1332" s="2" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B1332" t="s">
         <v>37</v>
@@ -24966,7 +24767,7 @@
     </row>
     <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1333" s="2" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B1333" t="s">
         <v>39</v>
@@ -24983,7 +24784,7 @@
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1334" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="B1334" t="s">
         <v>40</v>
@@ -25000,7 +24801,7 @@
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1335" s="2" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B1335" t="s">
         <v>41</v>
@@ -25017,7 +24818,7 @@
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1336" s="2" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B1336" t="s">
         <v>42</v>
@@ -25034,7 +24835,7 @@
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1337" s="2" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B1337" t="s">
         <v>43</v>
@@ -25051,7 +24852,7 @@
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1338" s="2" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B1338" t="s">
         <v>44</v>
@@ -25068,7 +24869,7 @@
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1339" s="2" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="B1339" t="s">
         <v>45</v>
@@ -25085,7 +24886,7 @@
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1340" s="2" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="B1340" t="s">
         <v>46</v>
@@ -25102,7 +24903,7 @@
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1341" s="2" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="B1341" t="s">
         <v>48</v>
@@ -25119,7 +24920,7 @@
     </row>
     <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1342" s="2" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="B1342" t="s">
         <v>51</v>
@@ -25136,7 +24937,7 @@
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1343" s="2" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="B1343" t="s">
         <v>52</v>
@@ -25153,7 +24954,7 @@
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1344" s="2" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B1344" t="s">
         <v>53</v>
@@ -25170,7 +24971,7 @@
     </row>
     <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1345" s="2" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="B1345" t="s">
         <v>55</v>
@@ -25187,7 +24988,7 @@
     </row>
     <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1346" s="2" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="B1346" t="s">
         <v>58</v>
@@ -25204,7 +25005,7 @@
     </row>
     <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1347" s="2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B1347" t="s">
         <v>59</v>
@@ -25221,7 +25022,7 @@
     </row>
     <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1348" s="2" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B1348" t="s">
         <v>60</v>
@@ -25235,13 +25036,13 @@
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1349" s="2" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="B1349" t="s">
         <v>63</v>
       </c>
       <c r="C1349" s="2" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="D1349" s="2" t="s">
         <v>376</v>
@@ -25252,7 +25053,7 @@
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1350" s="2" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="B1350" t="s">
         <v>66</v>
@@ -25269,7 +25070,7 @@
     </row>
     <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1351" s="2" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="B1351" t="s">
         <v>68</v>
@@ -25286,7 +25087,7 @@
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1352" s="2" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B1352" t="s">
         <v>69</v>
@@ -25303,7 +25104,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" s="2" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="B1353" t="s">
         <v>70</v>
@@ -25320,7 +25121,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" s="2" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="B1354" t="s">
         <v>71</v>
@@ -25337,7 +25138,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" s="2" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="B1355" t="s">
         <v>73</v>
@@ -25354,7 +25155,7 @@
     </row>
     <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1356" s="2" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="B1356" t="s">
         <v>74</v>
@@ -25371,7 +25172,7 @@
     </row>
     <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1357" s="2" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="B1357" t="s">
         <v>75</v>
@@ -25388,7 +25189,7 @@
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1358" s="2" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="B1358" t="s">
         <v>77</v>
@@ -25405,7 +25206,7 @@
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1359" s="2" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="B1359" t="s">
         <v>78</v>
@@ -25422,7 +25223,7 @@
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1360" s="2" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="B1360" t="s">
         <v>81</v>
@@ -25439,7 +25240,7 @@
     </row>
     <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1361" s="2" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="B1361" t="s">
         <v>83</v>
@@ -25456,7 +25257,7 @@
     </row>
     <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1362" s="2" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="B1362" t="s">
         <v>85</v>
@@ -25473,7 +25274,7 @@
     </row>
     <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1363" s="2" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="B1363" t="s">
         <v>87</v>
@@ -25490,7 +25291,7 @@
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1364" s="2" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="B1364" t="s">
         <v>89</v>
@@ -25507,7 +25308,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" s="2" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="B1365" t="s">
         <v>90</v>
@@ -25524,7 +25325,7 @@
     </row>
     <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1366" s="2" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="B1366" t="s">
         <v>93</v>
@@ -25541,7 +25342,7 @@
     </row>
     <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1367" s="2" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="B1367" t="s">
         <v>94</v>
@@ -25558,7 +25359,7 @@
     </row>
     <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1368" s="2" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="B1368" t="s">
         <v>96</v>
@@ -25575,7 +25376,7 @@
     </row>
     <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1369" s="2" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="B1369" t="s">
         <v>98</v>
@@ -25592,7 +25393,7 @@
     </row>
     <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1370" s="2" t="s">
-        <v>437</v>
+        <v>377</v>
       </c>
       <c r="B1370" t="s">
         <v>100</v>
@@ -25609,7 +25410,7 @@
     </row>
     <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1371" s="2" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="B1371" t="s">
         <v>102</v>
@@ -25626,7 +25427,7 @@
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1372" s="2" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="B1372" t="s">
         <v>104</v>
@@ -25643,7 +25444,7 @@
     </row>
     <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1373" s="2" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="B1373" t="s">
         <v>106</v>
@@ -25660,7 +25461,7 @@
     </row>
     <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1374" s="2" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="B1374" t="s">
         <v>108</v>
@@ -25677,7 +25478,7 @@
     </row>
     <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1375" s="2" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="B1375" t="s">
         <v>110</v>
@@ -25694,7 +25495,7 @@
     </row>
     <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1376" s="2" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="B1376" t="s">
         <v>112</v>
@@ -25711,7 +25512,7 @@
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1377" s="2" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="B1377" t="s">
         <v>114</v>
@@ -25728,7 +25529,7 @@
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1378" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1378" t="s">
         <v>4</v>
@@ -25745,7 +25546,7 @@
     </row>
     <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1379" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1379" t="s">
         <v>6</v>
@@ -25759,7 +25560,7 @@
     </row>
     <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1380" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1380" t="s">
         <v>8</v>
@@ -25773,7 +25574,7 @@
     </row>
     <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1381" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1381" t="s">
         <v>9</v>
@@ -25787,7 +25588,7 @@
     </row>
     <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1382" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1382" t="s">
         <v>11</v>
@@ -25801,7 +25602,7 @@
     </row>
     <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1383" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1383" t="s">
         <v>12</v>
@@ -25815,7 +25616,7 @@
     </row>
     <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1384" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1384" t="s">
         <v>13</v>
@@ -25829,7 +25630,7 @@
     </row>
     <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1385" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1385" t="s">
         <v>14</v>
@@ -25843,7 +25644,7 @@
     </row>
     <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1386" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1386" t="s">
         <v>15</v>
@@ -25860,7 +25661,7 @@
     </row>
     <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1387" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1387" t="s">
         <v>17</v>
@@ -25877,7 +25678,7 @@
     </row>
     <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1388" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1388" t="s">
         <v>20</v>
@@ -25894,16 +25695,16 @@
     </row>
     <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1389" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1389" t="s">
         <v>22</v>
       </c>
       <c r="C1389" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="D1389" s="2" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="E1389" t="b">
         <v>1</v>
@@ -25911,7 +25712,7 @@
     </row>
     <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1390" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1390" t="s">
         <v>24</v>
@@ -25928,7 +25729,7 @@
     </row>
     <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1391" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1391" t="s">
         <v>27</v>
@@ -25945,7 +25746,7 @@
     </row>
     <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1392" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1392" t="s">
         <v>28</v>
@@ -25962,7 +25763,7 @@
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1393" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1393" t="s">
         <v>29</v>
@@ -25976,7 +25777,7 @@
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1394" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1394" t="s">
         <v>31</v>
@@ -25990,7 +25791,7 @@
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1395" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1395" t="s">
         <v>32</v>
@@ -26007,7 +25808,7 @@
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1396" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1396" t="s">
         <v>33</v>
@@ -26024,7 +25825,7 @@
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1397" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1397" t="s">
         <v>34</v>
@@ -26041,7 +25842,7 @@
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1398" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1398" t="s">
         <v>35</v>
@@ -26058,7 +25859,7 @@
     </row>
     <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1399" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1399" t="s">
         <v>36</v>
@@ -26075,7 +25876,7 @@
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1400" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1400" t="s">
         <v>37</v>
@@ -26092,7 +25893,7 @@
     </row>
     <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1401" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1401" t="s">
         <v>39</v>
@@ -26109,7 +25910,7 @@
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1402" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1402" t="s">
         <v>40</v>
@@ -26126,7 +25927,7 @@
     </row>
     <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1403" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1403" t="s">
         <v>41</v>
@@ -26143,7 +25944,7 @@
     </row>
     <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1404" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1404" t="s">
         <v>42</v>
@@ -26160,7 +25961,7 @@
     </row>
     <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1405" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1405" t="s">
         <v>43</v>
@@ -26174,7 +25975,7 @@
     </row>
     <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1406" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1406" t="s">
         <v>44</v>
@@ -26191,7 +25992,7 @@
     </row>
     <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1407" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1407" t="s">
         <v>45</v>
@@ -26208,7 +26009,7 @@
     </row>
     <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1408" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1408" t="s">
         <v>46</v>
@@ -26225,7 +26026,7 @@
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1409" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1409" t="s">
         <v>48</v>
@@ -26242,7 +26043,7 @@
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1410" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1410" t="s">
         <v>51</v>
@@ -26259,7 +26060,7 @@
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1411" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1411" t="s">
         <v>52</v>
@@ -26273,7 +26074,7 @@
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1412" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1412" t="s">
         <v>53</v>
@@ -26290,7 +26091,7 @@
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1413" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1413" t="s">
         <v>55</v>
@@ -26307,7 +26108,7 @@
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1414" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1414" t="s">
         <v>58</v>
@@ -26324,7 +26125,7 @@
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1415" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1415" t="s">
         <v>59</v>
@@ -26341,16 +26142,16 @@
     </row>
     <row r="1416" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1416" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1416" t="s">
         <v>60</v>
       </c>
       <c r="C1416" s="3" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="D1416" s="5" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="E1416" t="b">
         <v>1</v>
@@ -26358,16 +26159,16 @@
     </row>
     <row r="1417" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1417" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1417" t="s">
         <v>63</v>
       </c>
       <c r="C1417" s="3" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="D1417" s="2" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="E1417" t="b">
         <v>1</v>
@@ -26375,7 +26176,7 @@
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1418" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1418" t="s">
         <v>66</v>
@@ -26392,7 +26193,7 @@
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1419" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1419" t="s">
         <v>68</v>
@@ -26409,7 +26210,7 @@
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1420" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1420" t="s">
         <v>69</v>
@@ -26426,7 +26227,7 @@
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1421" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1421" t="s">
         <v>70</v>
@@ -26443,7 +26244,7 @@
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1422" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1422" t="s">
         <v>71</v>
@@ -26460,7 +26261,7 @@
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1423" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1423" t="s">
         <v>73</v>
@@ -26477,7 +26278,7 @@
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1424" t="s">
         <v>74</v>
@@ -26494,16 +26295,16 @@
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1425" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1425" t="s">
         <v>75</v>
       </c>
       <c r="C1425" s="2" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="D1425" s="2" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="E1425" t="b">
         <v>1</v>
@@ -26511,7 +26312,7 @@
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1426" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1426" t="s">
         <v>77</v>
@@ -26528,7 +26329,7 @@
     </row>
     <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1427" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1427" t="s">
         <v>78</v>
@@ -26545,7 +26346,7 @@
     </row>
     <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1428" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1428" t="s">
         <v>81</v>
@@ -26562,7 +26363,7 @@
     </row>
     <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1429" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1429" t="s">
         <v>83</v>
@@ -26579,7 +26380,7 @@
     </row>
     <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1430" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1430" t="s">
         <v>85</v>
@@ -26596,7 +26397,7 @@
     </row>
     <row r="1431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1431" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1431" t="s">
         <v>87</v>
@@ -26613,7 +26414,7 @@
     </row>
     <row r="1432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1432" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1432" t="s">
         <v>89</v>
@@ -26630,7 +26431,7 @@
     </row>
     <row r="1433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1433" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1433" t="s">
         <v>90</v>
@@ -26647,7 +26448,7 @@
     </row>
     <row r="1434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1434" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1434" t="s">
         <v>93</v>
@@ -26664,7 +26465,7 @@
     </row>
     <row r="1435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1435" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1435" t="s">
         <v>94</v>
@@ -26681,7 +26482,7 @@
     </row>
     <row r="1436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1436" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1436" t="s">
         <v>96</v>
@@ -26698,7 +26499,7 @@
     </row>
     <row r="1437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1437" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1437" t="s">
         <v>98</v>
@@ -26715,7 +26516,7 @@
     </row>
     <row r="1438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1438" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1438" t="s">
         <v>100</v>
@@ -26732,7 +26533,7 @@
     </row>
     <row r="1439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1439" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1439" t="s">
         <v>102</v>
@@ -26749,7 +26550,7 @@
     </row>
     <row r="1440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1440" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1440" t="s">
         <v>104</v>
@@ -26766,7 +26567,7 @@
     </row>
     <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1441" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1441" t="s">
         <v>106</v>
@@ -26783,7 +26584,7 @@
     </row>
     <row r="1442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1442" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1442" t="s">
         <v>108</v>
@@ -26800,7 +26601,7 @@
     </row>
     <row r="1443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1443" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1443" t="s">
         <v>110</v>
@@ -26817,7 +26618,7 @@
     </row>
     <row r="1444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1444" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1444" t="s">
         <v>112</v>
@@ -26834,7 +26635,7 @@
     </row>
     <row r="1445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1445" s="2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="B1445" t="s">
         <v>114</v>
